--- a/step_attribute_num_json_procent.xlsx
+++ b/step_attribute_num_json_procent.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morning\Desktop\hiwi\heart\paper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11250F44-2C3F-4C0A-A70E-C8E3E5F76067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="25600" windowHeight="15250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Query</t>
   </si>
@@ -131,9 +137,6 @@
   </si>
   <si>
     <t>severity of economic loss_3</t>
-  </si>
-  <si>
-    <t>local population</t>
   </si>
   <si>
     <t>whether mental harm is reversible</t>
@@ -346,12 +349,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -359,8 +362,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -406,17 +416,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -454,7 +472,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -488,6 +506,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -522,9 +541,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -697,14 +717,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BG50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS8" sqref="AS8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,13 +904,10 @@
       <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:60">
-      <c r="A2" t="s">
-        <v>60</v>
       </c>
       <c r="B2">
         <v>81</v>
@@ -903,43 +922,43 @@
         <v>0.1358</v>
       </c>
       <c r="F2">
-        <v>0.8395</v>
+        <v>0.83950000000000002</v>
       </c>
       <c r="G2">
-        <v>0.4938</v>
+        <v>0.49380000000000002</v>
       </c>
       <c r="H2">
-        <v>0.9752999999999999</v>
+        <v>0.97529999999999994</v>
       </c>
       <c r="I2">
-        <v>0.679</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="J2">
-        <v>0.4938</v>
+        <v>0.49380000000000002</v>
       </c>
       <c r="K2">
-        <v>0.1975</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="L2">
         <v>0.1235</v>
       </c>
       <c r="M2">
-        <v>0.3457</v>
+        <v>0.34570000000000001</v>
       </c>
       <c r="N2">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="O2">
-        <v>0.0617</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="P2">
-        <v>0.5926</v>
+        <v>0.59260000000000002</v>
       </c>
       <c r="Q2">
-        <v>0.0494</v>
+        <v>4.9399999999999999E-2</v>
       </c>
       <c r="R2">
-        <v>0.0247</v>
+        <v>2.47E-2</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -954,79 +973,79 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0617</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="X2">
-        <v>0.0123</v>
+        <v>1.23E-2</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0123</v>
+        <v>1.23E-2</v>
       </c>
       <c r="AA2">
         <v>0.2346</v>
       </c>
       <c r="AB2">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AC2">
-        <v>0.3676</v>
+        <v>0.36759999999999998</v>
       </c>
       <c r="AD2">
-        <v>0.2206</v>
+        <v>0.22059999999999999</v>
       </c>
       <c r="AE2">
-        <v>0.3824</v>
+        <v>0.38240000000000002</v>
       </c>
       <c r="AF2">
-        <v>0.0294</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="AG2">
-        <v>0.8235</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.0588</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="AI2">
-        <v>0.4853</v>
+        <v>0.48530000000000001</v>
       </c>
       <c r="AJ2">
         <v>0.95</v>
       </c>
       <c r="AK2">
-        <v>0.675</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="AL2">
-        <v>0.275</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AM2">
         <v>0.05</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="AO2">
-        <v>0.1818</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="AP2">
-        <v>0.6364</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="AQ2">
-        <v>0.8182</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="AR2">
-        <v>0.1818</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="AS2">
-        <v>0.6364</v>
+        <v>0.59419999999999995</v>
       </c>
       <c r="AT2">
-        <v>0.5942</v>
+        <v>0.40579999999999999</v>
       </c>
       <c r="AU2">
-        <v>0.4058</v>
+        <v>0</v>
       </c>
       <c r="AV2">
         <v>0</v>
@@ -1064,79 +1083,76 @@
       <c r="BG2">
         <v>0</v>
       </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>29</v>
       </c>
       <c r="C3">
-        <v>0.0345</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1034</v>
+        <v>0.10340000000000001</v>
       </c>
       <c r="F3">
         <v>0.4138</v>
       </c>
       <c r="G3">
-        <v>0.4828</v>
+        <v>0.48280000000000001</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.3103</v>
+        <v>0.31030000000000002</v>
       </c>
       <c r="J3">
-        <v>0.4828</v>
+        <v>0.48280000000000001</v>
       </c>
       <c r="K3">
         <v>0.2414</v>
       </c>
       <c r="L3">
-        <v>0.06900000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="M3">
-        <v>0.3793</v>
+        <v>0.37930000000000003</v>
       </c>
       <c r="N3">
-        <v>0.0345</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="O3">
-        <v>0.06900000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="P3">
-        <v>0.5517</v>
+        <v>0.55169999999999997</v>
       </c>
       <c r="Q3">
-        <v>0.1379</v>
+        <v>0.13789999999999999</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0345</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="T3">
         <v>0.1724</v>
       </c>
       <c r="U3">
-        <v>0.0345</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0345</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1145,70 +1161,70 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0345</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="AA3">
-        <v>0.4828</v>
+        <v>0.48280000000000001</v>
       </c>
       <c r="AB3">
-        <v>0.0345</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="AC3">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AD3">
-        <v>0.4167</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="AE3">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.8333</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AJ3">
-        <v>0.9286</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="AK3">
-        <v>0.7857</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="AL3">
-        <v>0.2143</v>
+        <v>0.21429999999999999</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AS3">
-        <v>0.6667</v>
+        <v>0.6</v>
       </c>
       <c r="AT3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AU3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>0</v>
@@ -1223,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -1246,46 +1262,43 @@
       <c r="BG3">
         <v>0</v>
       </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>65</v>
       </c>
       <c r="C4">
-        <v>0.0308</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1538</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="F4">
-        <v>0.5538</v>
+        <v>0.55379999999999996</v>
       </c>
       <c r="G4">
-        <v>0.4769</v>
+        <v>0.47689999999999999</v>
       </c>
       <c r="H4">
-        <v>0.9077</v>
+        <v>0.90769999999999995</v>
       </c>
       <c r="I4">
-        <v>0.4462</v>
+        <v>0.44619999999999999</v>
       </c>
       <c r="J4">
-        <v>0.3385</v>
+        <v>0.33850000000000002</v>
       </c>
       <c r="K4">
         <v>0.2462</v>
       </c>
       <c r="L4">
-        <v>0.1538</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="M4">
         <v>0.4</v>
@@ -1297,10 +1310,10 @@
         <v>0.1231</v>
       </c>
       <c r="P4">
-        <v>0.6153999999999999</v>
+        <v>0.61539999999999995</v>
       </c>
       <c r="Q4">
-        <v>0.0462</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="R4">
         <v>0.1077</v>
@@ -1309,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0769</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="U4">
-        <v>0.0154</v>
+        <v>1.54E-2</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1327,34 +1340,34 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0154</v>
+        <v>1.54E-2</v>
       </c>
       <c r="AA4">
-        <v>0.2769</v>
+        <v>0.27689999999999998</v>
       </c>
       <c r="AB4">
-        <v>0.0154</v>
+        <v>1.54E-2</v>
       </c>
       <c r="AC4">
-        <v>0.4167</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="AD4">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="AE4">
-        <v>0.2778</v>
+        <v>0.27779999999999999</v>
       </c>
       <c r="AF4">
         <v>0.1389</v>
       </c>
       <c r="AG4">
-        <v>0.9167</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="AH4">
-        <v>0.0556</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="AI4">
-        <v>0.4167</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="AJ4">
         <v>0.9677</v>
@@ -1366,31 +1379,31 @@
         <v>0.2258</v>
       </c>
       <c r="AM4">
-        <v>0.0968</v>
+        <v>9.6799999999999997E-2</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AP4">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AQ4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AS4">
-        <v>0.8</v>
+        <v>0.51160000000000005</v>
       </c>
       <c r="AT4">
-        <v>0.5116000000000001</v>
+        <v>0.4884</v>
       </c>
       <c r="AU4">
-        <v>0.4884</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -1399,16 +1412,16 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
         <v>0.5</v>
       </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
       <c r="BA4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BB4">
         <v>0</v>
@@ -1417,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BE4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -1428,19 +1441,16 @@
       <c r="BG4">
         <v>0</v>
       </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>16</v>
       </c>
       <c r="C5">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1476,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="P5">
         <v>0.625</v>
       </c>
       <c r="Q5">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1491,22 +1501,22 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W5">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1521,16 +1531,16 @@
         <v>0.5</v>
       </c>
       <c r="AD5">
-        <v>0.4167</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AG5">
-        <v>0.9167</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1551,28 +1561,28 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5">
         <v>0.5</v>
       </c>
       <c r="AR5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="AT5">
-        <v>0.8182</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="AU5">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="AV5">
         <v>0</v>
@@ -1587,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -1610,70 +1620,67 @@
       <c r="BG5">
         <v>0</v>
       </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>79</v>
       </c>
       <c r="C6">
-        <v>0.0253</v>
+        <v>2.53E-2</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2025</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="F6">
         <v>0.8861</v>
       </c>
       <c r="G6">
-        <v>0.6203</v>
+        <v>0.62029999999999996</v>
       </c>
       <c r="H6">
-        <v>0.9873</v>
+        <v>0.98729999999999996</v>
       </c>
       <c r="I6">
-        <v>0.5570000000000001</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="J6">
-        <v>0.4684</v>
+        <v>0.46839999999999998</v>
       </c>
       <c r="K6">
-        <v>0.2532</v>
+        <v>0.25319999999999998</v>
       </c>
       <c r="L6">
-        <v>0.1392</v>
+        <v>0.13919999999999999</v>
       </c>
       <c r="M6">
-        <v>0.3671</v>
+        <v>0.36709999999999998</v>
       </c>
       <c r="N6">
-        <v>0.0253</v>
+        <v>2.53E-2</v>
       </c>
       <c r="O6">
-        <v>0.0253</v>
+        <v>2.53E-2</v>
       </c>
       <c r="P6">
-        <v>0.5823</v>
+        <v>0.58230000000000004</v>
       </c>
       <c r="Q6">
-        <v>0.0506</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="R6">
-        <v>0.0253</v>
+        <v>2.53E-2</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.2532</v>
+        <v>0.25319999999999998</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1682,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0886</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="X6">
-        <v>0.0253</v>
+        <v>2.53E-2</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1694,168 +1701,165 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.2532</v>
+        <v>0.25319999999999998</v>
       </c>
       <c r="AB6">
-        <v>0.0127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="AC6">
-        <v>0.3429</v>
+        <v>0.34289999999999998</v>
       </c>
       <c r="AD6">
         <v>0.1714</v>
       </c>
       <c r="AE6">
-        <v>0.3857</v>
+        <v>0.38569999999999999</v>
       </c>
       <c r="AF6">
         <v>0.1</v>
       </c>
       <c r="AG6">
-        <v>0.8571</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AH6">
-        <v>0.0857</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="AI6">
-        <v>0.4857</v>
+        <v>0.48570000000000002</v>
       </c>
       <c r="AJ6">
-        <v>0.9796</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="AK6">
-        <v>0.7143</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="AL6">
-        <v>0.2653</v>
+        <v>0.26529999999999998</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AO6">
-        <v>0.0625</v>
+        <v>0.625</v>
       </c>
       <c r="AP6">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="AQ6">
-        <v>0.75</v>
+        <v>0.125</v>
       </c>
       <c r="AR6">
+        <v>0.375</v>
+      </c>
+      <c r="AS6">
+        <v>0.7742</v>
+      </c>
+      <c r="AT6">
+        <v>0.2258</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0.5</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0.5</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
         <v>0.125</v>
       </c>
-      <c r="AS6">
-        <v>0.375</v>
-      </c>
-      <c r="AT6">
-        <v>0.7742</v>
-      </c>
-      <c r="AU6">
-        <v>0.2258</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0.5</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0.5</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
       <c r="BE6">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="BF6">
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0.0204</v>
+        <v>2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>51</v>
       </c>
       <c r="C7">
-        <v>0.0196</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="D7">
-        <v>0.0196</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="E7">
-        <v>0.1373</v>
+        <v>0.13730000000000001</v>
       </c>
       <c r="F7">
-        <v>0.4902</v>
+        <v>0.49020000000000002</v>
       </c>
       <c r="G7">
         <v>0.3725</v>
       </c>
       <c r="H7">
-        <v>0.9216</v>
+        <v>0.92159999999999997</v>
       </c>
       <c r="I7">
-        <v>0.2745</v>
+        <v>0.27450000000000002</v>
       </c>
       <c r="J7">
-        <v>0.2353</v>
+        <v>0.23530000000000001</v>
       </c>
       <c r="K7">
-        <v>0.3137</v>
+        <v>0.31369999999999998</v>
       </c>
       <c r="L7">
-        <v>0.0784</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="M7">
-        <v>0.2745</v>
+        <v>0.27450000000000002</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.098</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="P7">
-        <v>0.4314</v>
+        <v>0.43140000000000001</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.098</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="S7">
-        <v>0.0392</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="T7">
-        <v>0.0392</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1864,22 +1868,22 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.2353</v>
+        <v>0.23530000000000001</v>
       </c>
       <c r="X7">
-        <v>0.0588</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.0392</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="AA7">
         <v>0.3725</v>
       </c>
       <c r="AB7">
-        <v>0.0784</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="AC7">
         <v>0.24</v>
@@ -1900,55 +1904,55 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AJ7">
-        <v>0.9474</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="AK7">
-        <v>0.6316000000000001</v>
+        <v>0.63160000000000005</v>
       </c>
       <c r="AL7">
-        <v>0.3684</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="AP7">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="AQ7">
         <v>0.1429</v>
       </c>
-      <c r="AQ7">
-        <v>0.8571</v>
-      </c>
       <c r="AR7">
-        <v>0.1429</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AS7">
-        <v>0.8571</v>
+        <v>0.6512</v>
       </c>
       <c r="AT7">
-        <v>0.6512</v>
+        <v>0.3488</v>
       </c>
       <c r="AU7">
-        <v>0.3488</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
         <v>0</v>
@@ -1960,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7">
         <v>0</v>
@@ -1974,13 +1978,10 @@
       <c r="BG7">
         <v>0</v>
       </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>64</v>
@@ -1995,16 +1996,16 @@
         <v>0.1406</v>
       </c>
       <c r="F8">
-        <v>0.9688</v>
+        <v>0.96879999999999999</v>
       </c>
       <c r="G8">
         <v>0.4531</v>
       </c>
       <c r="H8">
-        <v>0.9688</v>
+        <v>0.96879999999999999</v>
       </c>
       <c r="I8">
-        <v>0.0312</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="J8">
         <v>0.4531</v>
@@ -2016,22 +2017,22 @@
         <v>0.1406</v>
       </c>
       <c r="M8">
-        <v>0.5312</v>
+        <v>0.53120000000000001</v>
       </c>
       <c r="N8">
-        <v>0.0312</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="O8">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="P8">
-        <v>0.8594000000000001</v>
+        <v>0.85940000000000005</v>
       </c>
       <c r="Q8">
-        <v>0.0312</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="R8">
-        <v>0.0156</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2043,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.0156</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="W8">
-        <v>0.0312</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -2055,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.0156</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="AA8">
         <v>0.125</v>
@@ -2073,22 +2074,22 @@
         <v>0.3226</v>
       </c>
       <c r="AF8">
-        <v>0.0968</v>
+        <v>9.6799999999999997E-2</v>
       </c>
       <c r="AG8">
         <v>0.871</v>
       </c>
       <c r="AH8">
-        <v>0.0323</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="AI8">
         <v>0.5806</v>
       </c>
       <c r="AJ8">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="AK8">
-        <v>0.7931</v>
+        <v>0.79310000000000003</v>
       </c>
       <c r="AL8">
         <v>0.2069</v>
@@ -2097,28 +2098,28 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>0.1111</v>
       </c>
       <c r="AP8">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="AQ8">
         <v>0.1111</v>
       </c>
-      <c r="AQ8">
-        <v>0.8889</v>
-      </c>
       <c r="AR8">
-        <v>0.1111</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="AS8">
-        <v>0.5556</v>
+        <v>0.8276</v>
       </c>
       <c r="AT8">
-        <v>0.8276</v>
+        <v>0.1724</v>
       </c>
       <c r="AU8">
-        <v>0.1724</v>
+        <v>0</v>
       </c>
       <c r="AV8">
         <v>0</v>
@@ -2156,43 +2157,40 @@
       <c r="BG8">
         <v>0</v>
       </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <v>385</v>
       </c>
       <c r="C9">
-        <v>0.0182</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="D9">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="E9">
-        <v>0.1506</v>
+        <v>0.15060000000000001</v>
       </c>
       <c r="F9">
-        <v>0.7403</v>
+        <v>0.74029999999999996</v>
       </c>
       <c r="G9">
-        <v>0.4883</v>
+        <v>0.48830000000000001</v>
       </c>
       <c r="H9">
-        <v>0.9584</v>
+        <v>0.95840000000000003</v>
       </c>
       <c r="I9">
-        <v>0.4208</v>
+        <v>0.42080000000000001</v>
       </c>
       <c r="J9">
         <v>0.4078</v>
       </c>
       <c r="K9">
-        <v>0.2519</v>
+        <v>0.25190000000000001</v>
       </c>
       <c r="L9">
         <v>0.1195</v>
@@ -2201,150 +2199,147 @@
         <v>0.374</v>
       </c>
       <c r="N9">
-        <v>0.0208</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="O9">
-        <v>0.0701</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="P9">
-        <v>0.6156</v>
+        <v>0.61560000000000004</v>
       </c>
       <c r="Q9">
-        <v>0.0468</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="R9">
-        <v>0.0442</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="S9">
-        <v>0.0078</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="T9">
         <v>0.1948</v>
       </c>
       <c r="U9">
-        <v>0.0052</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="V9">
-        <v>0.0052</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="W9">
-        <v>0.0935</v>
+        <v>9.35E-2</v>
       </c>
       <c r="X9">
-        <v>0.0156</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y9">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="Z9">
-        <v>0.0156</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="AA9">
-        <v>0.2597</v>
+        <v>0.25969999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.0338</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="AC9">
-        <v>0.3474</v>
+        <v>0.34739999999999999</v>
       </c>
       <c r="AD9">
         <v>0.2316</v>
       </c>
       <c r="AE9">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AF9">
-        <v>0.0877</v>
+        <v>8.77E-2</v>
       </c>
       <c r="AG9">
-        <v>0.8596</v>
+        <v>0.85960000000000003</v>
       </c>
       <c r="AH9">
-        <v>0.0491</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="AI9">
-        <v>0.4737</v>
+        <v>0.47370000000000001</v>
       </c>
       <c r="AJ9">
-        <v>0.9574</v>
+        <v>0.95740000000000003</v>
       </c>
       <c r="AK9">
-        <v>0.7181</v>
+        <v>0.71809999999999996</v>
       </c>
       <c r="AL9">
         <v>0.25</v>
       </c>
       <c r="AM9">
-        <v>0.0266</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>5.1700000000000003E-2</v>
       </c>
       <c r="AO9">
-        <v>0.0517</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="AP9">
-        <v>0.431</v>
+        <v>0.8276</v>
       </c>
       <c r="AQ9">
-        <v>0.8276</v>
+        <v>0.1207</v>
       </c>
       <c r="AR9">
-        <v>0.1207</v>
+        <v>0.62070000000000003</v>
       </c>
       <c r="AS9">
-        <v>0.6207</v>
+        <v>0.67849999999999999</v>
       </c>
       <c r="AT9">
-        <v>0.6785</v>
+        <v>0.32150000000000001</v>
       </c>
       <c r="AU9">
-        <v>0.3215</v>
+        <v>1</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9">
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="AY9">
-        <v>0.4286</v>
+        <v>0</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="BA9">
-        <v>0.5714</v>
+        <v>0</v>
       </c>
       <c r="BB9">
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9">
-        <v>1</v>
+        <v>5.1700000000000003E-2</v>
       </c>
       <c r="BE9">
-        <v>0.0517</v>
+        <v>0</v>
       </c>
       <c r="BF9">
         <v>0</v>
       </c>
       <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>0.0053</v>
+        <v>5.3E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -2356,22 +2351,22 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F10">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="G10">
         <v>0.1429</v>
       </c>
       <c r="H10">
-        <v>0.7143</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="I10">
         <v>0.1429</v>
       </c>
       <c r="J10">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="K10">
         <v>0.1429</v>
@@ -2461,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO10">
         <v>0.5</v>
@@ -2470,49 +2465,49 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
         <v>0.5</v>
       </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>1</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>1</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>1</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
       <c r="BE10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BF10">
         <v>0</v>
@@ -2520,13 +2515,10 @@
       <c r="BG10">
         <v>0</v>
       </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -2535,61 +2527,61 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E11">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="H11">
-        <v>0.9167</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="K11">
-        <v>0.2083</v>
+        <v>0.20830000000000001</v>
       </c>
       <c r="L11">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="M11">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="P11">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="Q11">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="T11">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2598,16 +2590,16 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.2083</v>
+        <v>0.20830000000000001</v>
       </c>
       <c r="Z11">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="AA11">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AB11">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2649,52 +2641,52 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>0.15790000000000001</v>
+      </c>
+      <c r="AT11">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
         <v>0.5</v>
       </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>1</v>
-      </c>
-      <c r="AT11">
-        <v>0.1579</v>
-      </c>
-      <c r="AU11">
-        <v>0.8421</v>
-      </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
       <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
         <v>0.5</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
       </c>
       <c r="BD11">
         <v>0.5</v>
       </c>
       <c r="BE11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BF11">
         <v>0</v>
@@ -2702,195 +2694,189 @@
       <c r="BG11">
         <v>0</v>
       </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>70</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:60">
-      <c r="A13" t="s">
-        <v>71</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -3007,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -3025,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV13">
         <v>0</v>
@@ -3037,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13">
         <v>0</v>
@@ -3066,13 +3052,10 @@
       <c r="BG13">
         <v>0</v>
       </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -3084,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F14">
         <v>0.1429</v>
@@ -3093,16 +3076,16 @@
         <v>0.1429</v>
       </c>
       <c r="H14">
-        <v>0.8571</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="I14">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -3189,58 +3172,58 @@
         <v>1</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="AT14">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
         <v>0.5</v>
       </c>
-      <c r="AS14">
-        <v>1</v>
-      </c>
-      <c r="AT14">
-        <v>0.1667</v>
-      </c>
-      <c r="AU14">
-        <v>0.8333</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
       <c r="BE14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BF14">
         <v>0</v>
@@ -3248,46 +3231,43 @@
       <c r="BG14">
         <v>0</v>
       </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>42</v>
       </c>
       <c r="C15">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="D15">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="E15">
         <v>0.1429</v>
       </c>
       <c r="F15">
-        <v>0.07140000000000001</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="G15">
-        <v>0.09520000000000001</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="H15">
-        <v>0.881</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="I15">
-        <v>0.09520000000000001</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="J15">
-        <v>0.07140000000000001</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="K15">
-        <v>0.2619</v>
+        <v>0.26190000000000002</v>
       </c>
       <c r="L15">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="M15">
         <v>0.1905</v>
@@ -3296,28 +3276,28 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07140000000000001</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="P15">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="Q15">
-        <v>0.07140000000000001</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.0238</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="T15">
-        <v>0.0238</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3326,25 +3306,25 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="Z15">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="AA15">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="AB15">
-        <v>0.2619</v>
+        <v>0.26190000000000002</v>
       </c>
       <c r="AC15">
-        <v>0.6667</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -3371,58 +3351,58 @@
         <v>0.5</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="AO15">
-        <v>0.8333</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="AP15">
-        <v>0.8333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AQ15">
-        <v>0.3333</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="AR15">
-        <v>0.1667</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="AT15">
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="AU15">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AV15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15">
         <v>0</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
         <v>0.5</v>
-      </c>
-      <c r="AZ15">
-        <v>0</v>
       </c>
       <c r="BA15">
         <v>0.5</v>
       </c>
       <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
         <v>0.5</v>
-      </c>
-      <c r="BC15">
-        <v>0</v>
       </c>
       <c r="BD15">
         <v>0.5</v>
       </c>
       <c r="BE15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BF15">
         <v>0</v>
@@ -3430,49 +3410,46 @@
       <c r="BG15">
         <v>0</v>
       </c>
-      <c r="BH15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>39</v>
       </c>
       <c r="C16">
-        <v>0.0769</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="D16">
-        <v>0.0769</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E16">
-        <v>0.1538</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="F16">
-        <v>0.1795</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="G16">
-        <v>0.2821</v>
+        <v>0.28210000000000002</v>
       </c>
       <c r="H16">
-        <v>0.9231</v>
+        <v>0.92310000000000003</v>
       </c>
       <c r="I16">
-        <v>0.0256</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="J16">
-        <v>0.2308</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="K16">
-        <v>0.4872</v>
+        <v>0.48720000000000002</v>
       </c>
       <c r="L16">
-        <v>0.0256</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="M16">
-        <v>0.2821</v>
+        <v>0.28210000000000002</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -3481,10 +3458,10 @@
         <v>0.1026</v>
       </c>
       <c r="P16">
-        <v>0.2821</v>
+        <v>0.28210000000000002</v>
       </c>
       <c r="Q16">
-        <v>0.1538</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -3499,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3508,16 +3485,16 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>0.6153999999999999</v>
+        <v>0.61539999999999995</v>
       </c>
       <c r="Z16">
-        <v>0.0769</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="AA16">
-        <v>0.1538</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="AB16">
-        <v>0.7179</v>
+        <v>0.71789999999999998</v>
       </c>
       <c r="AC16">
         <v>0.1429</v>
@@ -3526,281 +3503,275 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>0.5714</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="AF16">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="AG16">
-        <v>0.8571</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AH16">
-        <v>0.4286</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="AI16">
-        <v>0.8571</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AJ16">
         <v>1</v>
       </c>
       <c r="AK16">
-        <v>0.5455</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="AL16">
-        <v>0.1818</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="AM16">
-        <v>0.1818</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AO16">
-        <v>0.6667</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AP16">
-        <v>0.6667</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AQ16">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AR16">
-        <v>0.3333</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AS16">
-        <v>0.6667</v>
+        <v>0.15</v>
       </c>
       <c r="AT16">
-        <v>0.15</v>
+        <v>0.85</v>
       </c>
       <c r="AU16">
-        <v>0.85</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AV16">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AX16">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="AY16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16">
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="BB16">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="BC16">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="BD16">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="BE16">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="BF16">
         <v>0</v>
       </c>
       <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <v>0.09089999999999999</v>
+        <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:60">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>1</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>75</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>1</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>1</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>1</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:60">
-      <c r="A18" t="s">
-        <v>76</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -3917,34 +3888,34 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX18">
         <v>0</v>
@@ -3953,10 +3924,10 @@
         <v>0</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18">
         <v>0</v>
@@ -3976,31 +3947,28 @@
       <c r="BG18">
         <v>0</v>
       </c>
-      <c r="BH18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:60">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>34</v>
       </c>
       <c r="C19">
-        <v>0.0588</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="D19">
-        <v>0.6471</v>
+        <v>0.64710000000000001</v>
       </c>
       <c r="E19">
-        <v>0.2647</v>
+        <v>0.26469999999999999</v>
       </c>
       <c r="F19">
-        <v>0.0294</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="G19">
-        <v>0.0882</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -4009,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1765</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="K19">
-        <v>0.3529</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -4021,31 +3989,31 @@
         <v>0.2059</v>
       </c>
       <c r="N19">
-        <v>0.0294</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="O19">
-        <v>0.1471</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="P19">
-        <v>0.2647</v>
+        <v>0.26469999999999999</v>
       </c>
       <c r="Q19">
-        <v>0.0882</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0294</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="T19">
-        <v>0.0588</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0.1471</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -4054,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.2353</v>
+        <v>0.23530000000000001</v>
       </c>
       <c r="Z19">
         <v>0.1176</v>
@@ -4063,7 +4031,7 @@
         <v>0.1176</v>
       </c>
       <c r="AB19">
-        <v>0.3529</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -4090,102 +4058,99 @@
         <v>1</v>
       </c>
       <c r="AK19">
-        <v>0.6667</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AL19">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AM19">
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AO19">
-        <v>0.3333</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="AP19">
-        <v>0.5556</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AQ19">
-        <v>0.6667</v>
+        <v>0.1111</v>
       </c>
       <c r="AR19">
-        <v>0.1111</v>
+        <v>1</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0.60870000000000002</v>
       </c>
       <c r="AT19">
-        <v>0.6087</v>
+        <v>0.39129999999999998</v>
       </c>
       <c r="AU19">
-        <v>0.3913</v>
+        <v>0.95450000000000002</v>
       </c>
       <c r="AV19">
-        <v>0.9545</v>
+        <v>0</v>
       </c>
       <c r="AW19">
         <v>0</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19">
-        <v>1</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="AZ19">
-        <v>0.09089999999999999</v>
+        <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>0.40910000000000002</v>
       </c>
       <c r="BB19">
-        <v>0.4091</v>
+        <v>0</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BD19">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="BE19">
         <v>0.5</v>
       </c>
-      <c r="BE19">
-        <v>0.2222</v>
-      </c>
       <c r="BF19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BG19">
         <v>0</v>
       </c>
-      <c r="BH19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:60">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>54</v>
       </c>
       <c r="C20">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D20">
-        <v>0.0185</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="E20">
-        <v>0.1296</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="F20">
         <v>0.1852</v>
       </c>
       <c r="G20">
-        <v>0.3704</v>
+        <v>0.37040000000000001</v>
       </c>
       <c r="H20">
-        <v>0.9815</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4194,25 +4159,25 @@
         <v>0.1111</v>
       </c>
       <c r="K20">
-        <v>0.4074</v>
+        <v>0.40739999999999998</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2222</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.0185</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="P20">
-        <v>0.2593</v>
+        <v>0.25929999999999997</v>
       </c>
       <c r="Q20">
-        <v>0.0741</v>
+        <v>7.4099999999999999E-2</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -4236,16 +4201,16 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>0.2963</v>
+        <v>0.29630000000000001</v>
       </c>
       <c r="Z20">
-        <v>0.0556</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="AA20">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AB20">
-        <v>0.463</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="AC20">
         <v>0.3</v>
@@ -4281,58 +4246,58 @@
         <v>0.3</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="AO20">
-        <v>0.2857</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="AP20">
-        <v>0.7143</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AQ20">
-        <v>0.8571</v>
+        <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0.14810000000000001</v>
       </c>
       <c r="AT20">
-        <v>0.1481</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="AU20">
-        <v>0.8519</v>
+        <v>1</v>
       </c>
       <c r="AV20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW20">
         <v>0</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
         <v>0.5</v>
       </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
       <c r="BA20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BB20">
         <v>0</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20">
-        <v>1</v>
+        <v>0.1429</v>
       </c>
       <c r="BE20">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
       <c r="BF20">
         <v>0</v>
@@ -4340,13 +4305,10 @@
       <c r="BG20">
         <v>0</v>
       </c>
-      <c r="BH20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:60">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4454,67 +4416,67 @@
         <v>1</v>
       </c>
       <c r="AK21">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="AL21">
-        <v>0.6667</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AM21">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AO21">
+        <v>0.5</v>
+      </c>
+      <c r="AP21">
+        <v>0.75</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+      <c r="AS21">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="AT21">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="AU21">
+        <v>0.5</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="BA21">
+        <v>0.5</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0.5</v>
+      </c>
+      <c r="BD21">
         <v>0.25</v>
       </c>
-      <c r="AP21">
-        <v>0.5</v>
-      </c>
-      <c r="AQ21">
-        <v>0.75</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>1</v>
-      </c>
-      <c r="AT21">
-        <v>0.7778</v>
-      </c>
-      <c r="AU21">
-        <v>0.2222</v>
-      </c>
-      <c r="AV21">
-        <v>0.5</v>
-      </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>0.6667</v>
-      </c>
-      <c r="AZ21">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>0.3333</v>
-      </c>
-      <c r="BB21">
-        <v>0.5</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BD21">
-        <v>0.5</v>
-      </c>
       <c r="BE21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BF21">
         <v>0</v>
@@ -4522,25 +4484,22 @@
       <c r="BG21">
         <v>0</v>
       </c>
-      <c r="BH21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:60">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.0455</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1364</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="F22">
         <v>0.2273</v>
@@ -4549,40 +4508,40 @@
         <v>0.5</v>
       </c>
       <c r="H22">
-        <v>0.8636</v>
+        <v>0.86360000000000003</v>
       </c>
       <c r="I22">
-        <v>0.0455</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="J22">
-        <v>0.0455</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="K22">
-        <v>0.7272999999999999</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="L22">
-        <v>0.1364</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="M22">
-        <v>0.4091</v>
+        <v>0.40910000000000002</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.6818</v>
+        <v>0.68179999999999996</v>
       </c>
       <c r="P22">
         <v>0.2727</v>
       </c>
       <c r="Q22">
-        <v>0.09089999999999999</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="R22">
-        <v>0.09089999999999999</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="S22">
-        <v>0.1818</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -4591,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0.7727000000000001</v>
+        <v>0.77270000000000005</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -4600,13 +4559,13 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.6364</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="Z22">
         <v>0.2727</v>
       </c>
       <c r="AA22">
-        <v>0.7727000000000001</v>
+        <v>0.77270000000000005</v>
       </c>
       <c r="AB22">
         <v>1</v>
@@ -4633,40 +4592,40 @@
         <v>0.2</v>
       </c>
       <c r="AJ22">
-        <v>0.9091</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="AK22">
-        <v>0.4545</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="AL22">
-        <v>0.5455</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="AM22">
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AO22">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AP22">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AQ22">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>0.4667</v>
       </c>
       <c r="AT22">
-        <v>0.4667</v>
+        <v>0.5333</v>
       </c>
       <c r="AU22">
-        <v>0.5333</v>
+        <v>0</v>
       </c>
       <c r="AV22">
         <v>0</v>
@@ -4681,10 +4640,10 @@
         <v>0</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22">
         <v>0</v>
@@ -4693,10 +4652,10 @@
         <v>0</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="BE22">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="BF22">
         <v>0</v>
@@ -4704,13 +4663,10 @@
       <c r="BG22">
         <v>0</v>
       </c>
-      <c r="BH22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:60">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -4722,10 +4678,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="F23">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -4734,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="J23">
         <v>0.25</v>
@@ -4746,19 +4702,19 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4167</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="P23">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="Q23">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -4773,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -4782,13 +4738,13 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.8333</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="Z23">
         <v>0.5</v>
       </c>
       <c r="AA23">
-        <v>0.4167</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="AB23">
         <v>1</v>
@@ -4827,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -4839,16 +4795,16 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23">
         <v>0</v>
@@ -4875,10 +4831,10 @@
         <v>0</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23">
         <v>0</v>
@@ -4886,13 +4842,10 @@
       <c r="BG23">
         <v>0</v>
       </c>
-      <c r="BH23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:60">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -5012,10 +4965,10 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ24">
         <v>0.5</v>
@@ -5024,10 +4977,10 @@
         <v>0.5</v>
       </c>
       <c r="AS24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5039,16 +4992,16 @@
         <v>0</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AY24">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BA24">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BB24">
         <v>0</v>
@@ -5068,43 +5021,40 @@
       <c r="BG24">
         <v>0</v>
       </c>
-      <c r="BH24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:60">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8696</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="D25">
-        <v>0.0435</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="E25">
-        <v>0.08699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F25">
-        <v>0.1304</v>
+        <v>0.13039999999999999</v>
       </c>
       <c r="G25">
-        <v>0.08699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.0435</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="J25">
         <v>0.4783</v>
       </c>
       <c r="K25">
-        <v>0.4348</v>
+        <v>0.43480000000000002</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -5116,13 +5066,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.08699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="P25">
         <v>0.1739</v>
       </c>
       <c r="Q25">
-        <v>0.0435</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -5137,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0.08699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -5149,10 +5099,10 @@
         <v>0.3478</v>
       </c>
       <c r="Z25">
-        <v>0.5217000000000001</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="AA25">
-        <v>0.5217000000000001</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="AB25">
         <v>0.4783</v>
@@ -5170,13 +5120,13 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0.6667</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AH25">
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0.6667</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AJ25">
         <v>1</v>
@@ -5191,72 +5141,69 @@
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25">
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR25">
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="AT25">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
       <c r="AU25">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="AV25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW25">
         <v>0</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AY25">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AZ25">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="BA25">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="BC25">
+        <v>1</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
         <v>0.15</v>
       </c>
-      <c r="BD25">
-        <v>1</v>
-      </c>
-      <c r="BE25">
-        <v>0</v>
-      </c>
       <c r="BF25">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="BG25">
         <v>0</v>
       </c>
-      <c r="BH25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:60">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -5373,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -5388,13 +5335,13 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT26">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AU26">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AV26">
         <v>0</v>
@@ -5409,10 +5356,10 @@
         <v>0</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26">
         <v>0</v>
@@ -5430,15 +5377,12 @@
         <v>0</v>
       </c>
       <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:60">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -5555,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5570,10 +5514,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -5614,377 +5558,368 @@
       <c r="BG27">
         <v>0</v>
       </c>
-      <c r="BH27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:60">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>86</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
-        <v>0</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AW28">
-        <v>0</v>
-      </c>
-      <c r="AX28">
-        <v>0</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <v>0</v>
-      </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
-      <c r="BD28">
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <v>0</v>
-      </c>
-      <c r="BF28">
-        <v>0</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60">
-      <c r="A29" t="s">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>87</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <v>0</v>
-      </c>
-      <c r="BC29">
-        <v>0</v>
-      </c>
-      <c r="BD29">
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <v>0</v>
-      </c>
-      <c r="BF29">
-        <v>0</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:60">
-      <c r="A30" t="s">
-        <v>88</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -5993,34 +5928,34 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0.1034</v>
+        <v>0.10340000000000001</v>
       </c>
       <c r="E30">
         <v>0.1724</v>
       </c>
       <c r="F30">
-        <v>0.06900000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="G30">
-        <v>0.1034</v>
+        <v>0.10340000000000001</v>
       </c>
       <c r="H30">
-        <v>0.9655</v>
+        <v>0.96550000000000002</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.1379</v>
+        <v>0.13789999999999999</v>
       </c>
       <c r="K30">
-        <v>0.4483</v>
+        <v>0.44829999999999998</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.2759</v>
+        <v>0.27589999999999998</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -6032,7 +5967,7 @@
         <v>0.2414</v>
       </c>
       <c r="Q30">
-        <v>0.06900000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -6041,10 +5976,10 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>0.0345</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="U30">
-        <v>0.0345</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="V30">
         <v>0.4138</v>
@@ -6056,16 +5991,16 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>0.6207</v>
+        <v>0.62070000000000003</v>
       </c>
       <c r="Z30">
-        <v>0.1379</v>
+        <v>0.13789999999999999</v>
       </c>
       <c r="AA30">
-        <v>0.2759</v>
+        <v>0.27589999999999998</v>
       </c>
       <c r="AB30">
-        <v>0.8621</v>
+        <v>0.86209999999999998</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -6092,40 +6027,40 @@
         <v>1</v>
       </c>
       <c r="AK30">
-        <v>0.6667</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AL30">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AM30">
         <v>0</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AP30">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
         <v>0.8</v>
       </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
       <c r="AS30">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="AT30">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="AU30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AV30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW30">
         <v>0</v>
@@ -6134,10 +6069,10 @@
         <v>0</v>
       </c>
       <c r="AY30">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AZ30">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="BA30">
         <v>0</v>
@@ -6146,13 +6081,13 @@
         <v>0</v>
       </c>
       <c r="BC30">
-        <v>0</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="BD30">
-        <v>0.6667</v>
+        <v>0.2</v>
       </c>
       <c r="BE30">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BF30">
         <v>0</v>
@@ -6160,13 +6095,10 @@
       <c r="BG30">
         <v>0</v>
       </c>
-      <c r="BH30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:60">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31">
         <v>24</v>
@@ -6175,16 +6107,16 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="E31">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="F31">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="G31">
-        <v>0.4167</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="H31">
         <v>0.875</v>
@@ -6193,13 +6125,13 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="K31">
-        <v>0.4583</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="L31">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="M31">
         <v>0.125</v>
@@ -6208,16 +6140,16 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="P31">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -6226,25 +6158,25 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="V31">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="W31">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.2917</v>
+        <v>0.29170000000000001</v>
       </c>
       <c r="AB31">
         <v>0.625</v>
@@ -6283,31 +6215,31 @@
         <v>0.1</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="AT31">
-        <v>0.2857</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="AU31">
-        <v>0.7143</v>
+        <v>1</v>
       </c>
       <c r="AV31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW31">
         <v>0</v>
@@ -6328,10 +6260,10 @@
         <v>0</v>
       </c>
       <c r="BC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE31">
         <v>0</v>
@@ -6342,13 +6274,10 @@
       <c r="BG31">
         <v>0</v>
       </c>
-      <c r="BH31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:60">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -6465,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -6480,13 +6409,13 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT32">
         <v>0.5</v>
       </c>
       <c r="AU32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AV32">
         <v>0</v>
@@ -6524,249 +6453,243 @@
       <c r="BG32">
         <v>0</v>
       </c>
-      <c r="BH32">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:60">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>91</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
-      <c r="AL33">
-        <v>0</v>
-      </c>
-      <c r="AM33">
-        <v>0</v>
-      </c>
-      <c r="AN33">
-        <v>0</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>0</v>
-      </c>
-      <c r="AS33">
-        <v>0</v>
-      </c>
-      <c r="AT33">
-        <v>0</v>
-      </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
-      <c r="AV33">
-        <v>0</v>
-      </c>
-      <c r="AW33">
-        <v>0</v>
-      </c>
-      <c r="AX33">
-        <v>0</v>
-      </c>
-      <c r="AY33">
-        <v>0</v>
-      </c>
-      <c r="AZ33">
-        <v>0</v>
-      </c>
-      <c r="BA33">
-        <v>0</v>
-      </c>
-      <c r="BB33">
-        <v>0</v>
-      </c>
-      <c r="BC33">
-        <v>0</v>
-      </c>
-      <c r="BD33">
-        <v>0</v>
-      </c>
-      <c r="BE33">
-        <v>0</v>
-      </c>
-      <c r="BF33">
-        <v>0</v>
-      </c>
-      <c r="BG33">
-        <v>0</v>
-      </c>
-      <c r="BH33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:60">
-      <c r="A34" t="s">
-        <v>92</v>
       </c>
       <c r="B34">
         <v>46</v>
       </c>
       <c r="C34">
-        <v>0.0217</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.08699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F34">
-        <v>0.2174</v>
+        <v>0.21740000000000001</v>
       </c>
       <c r="G34">
-        <v>0.4348</v>
+        <v>0.43480000000000002</v>
       </c>
       <c r="H34">
-        <v>0.8696</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.06519999999999999</v>
+        <v>6.5199999999999994E-2</v>
       </c>
       <c r="K34">
-        <v>0.2391</v>
+        <v>0.23910000000000001</v>
       </c>
       <c r="L34">
-        <v>0.0217</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="M34">
-        <v>0.1304</v>
+        <v>0.13039999999999999</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0.06519999999999999</v>
+        <v>6.5199999999999994E-2</v>
       </c>
       <c r="P34">
-        <v>0.08699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="Q34">
-        <v>0.0435</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="R34">
-        <v>0.0217</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="S34">
-        <v>0.0217</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -6784,16 +6707,16 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>0.4565</v>
+        <v>0.45650000000000002</v>
       </c>
       <c r="Z34">
-        <v>0.0217</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="AA34">
-        <v>0.2391</v>
+        <v>0.23910000000000001</v>
       </c>
       <c r="AB34">
-        <v>0.8913</v>
+        <v>0.89129999999999998</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -6829,28 +6752,28 @@
         <v>0.1</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AO34">
+        <v>0.5</v>
+      </c>
+      <c r="AP34">
+        <v>0.75</v>
+      </c>
+      <c r="AQ34">
         <v>0.25</v>
       </c>
-      <c r="AP34">
+      <c r="AR34">
         <v>0.5</v>
       </c>
-      <c r="AQ34">
-        <v>0.75</v>
-      </c>
-      <c r="AR34">
-        <v>0.25</v>
-      </c>
       <c r="AS34">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="AT34">
-        <v>0.12</v>
+        <v>0.88</v>
       </c>
       <c r="AU34">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AV34">
         <v>0</v>
@@ -6859,10 +6782,10 @@
         <v>0</v>
       </c>
       <c r="AX34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ34">
         <v>0</v>
@@ -6888,28 +6811,25 @@
       <c r="BG34">
         <v>0</v>
       </c>
-      <c r="BH34">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:60">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35">
         <v>48</v>
       </c>
       <c r="C35">
-        <v>0.8333</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="F35">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="G35">
         <v>0.3125</v>
@@ -6918,19 +6838,19 @@
         <v>0.9375</v>
       </c>
       <c r="I35">
-        <v>0.0208</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="J35">
-        <v>0.3542</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="K35">
         <v>0.375</v>
       </c>
       <c r="L35">
-        <v>0.0208</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="M35">
-        <v>0.3958</v>
+        <v>0.39579999999999999</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -6939,10 +6859,10 @@
         <v>0.1042</v>
       </c>
       <c r="P35">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Q35">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -6951,28 +6871,28 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>0.0208</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
       <c r="V35">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="W35">
-        <v>0.0208</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="X35">
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>0.2708</v>
+        <v>0.27079999999999999</v>
       </c>
       <c r="Z35">
         <v>0.4375</v>
       </c>
       <c r="AA35">
-        <v>0.5208</v>
+        <v>0.52080000000000004</v>
       </c>
       <c r="AB35">
         <v>0.5625</v>
@@ -7008,87 +6928,84 @@
         <v>0.4667</v>
       </c>
       <c r="AM35">
-        <v>0.0667</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP35">
         <v>0.25</v>
       </c>
       <c r="AQ35">
+        <v>0.5</v>
+      </c>
+      <c r="AR35">
+        <v>0.75</v>
+      </c>
+      <c r="AS35">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="AT35">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0.35</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0.6</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
         <v>0.25</v>
       </c>
-      <c r="AR35">
-        <v>0.5</v>
-      </c>
-      <c r="AS35">
-        <v>0.75</v>
-      </c>
-      <c r="AT35">
-        <v>0.5833</v>
-      </c>
-      <c r="AU35">
-        <v>0.4167</v>
-      </c>
-      <c r="AV35">
-        <v>0</v>
-      </c>
-      <c r="AW35">
-        <v>0</v>
-      </c>
-      <c r="AX35">
-        <v>0</v>
-      </c>
-      <c r="AY35">
-        <v>0.35</v>
-      </c>
-      <c r="AZ35">
-        <v>0</v>
-      </c>
-      <c r="BA35">
-        <v>0.6</v>
-      </c>
-      <c r="BB35">
-        <v>0</v>
-      </c>
-      <c r="BC35">
-        <v>0.025</v>
-      </c>
-      <c r="BD35">
-        <v>0</v>
-      </c>
       <c r="BE35">
-        <v>0.25</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="BF35">
-        <v>0.075</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="BG35">
-        <v>0.025</v>
-      </c>
-      <c r="BH35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:60">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36">
         <v>13</v>
       </c>
       <c r="C36">
-        <v>0.0769</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="D36">
-        <v>0.0769</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E36">
-        <v>0.2308</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -7097,34 +7014,34 @@
         <v>0.3846</v>
       </c>
       <c r="H36">
-        <v>0.8462</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.0769</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="K36">
-        <v>0.6923</v>
+        <v>0.69230000000000003</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.1538</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0.7692</v>
+        <v>0.76919999999999999</v>
       </c>
       <c r="P36">
-        <v>0.6153999999999999</v>
+        <v>0.61539999999999995</v>
       </c>
       <c r="Q36">
-        <v>0.1538</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -7139,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>0.8462</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -7148,13 +7065,13 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>0.9231</v>
+        <v>0.92310000000000003</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.6923</v>
+        <v>0.69230000000000003</v>
       </c>
       <c r="AB36">
         <v>1</v>
@@ -7193,28 +7110,28 @@
         <v>0</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AO36">
-        <v>0.6667</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AP36">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="AT36">
-        <v>0.09089999999999999</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="AU36">
-        <v>0.9091</v>
+        <v>0</v>
       </c>
       <c r="AV36">
         <v>0</v>
@@ -7229,19 +7146,19 @@
         <v>0</v>
       </c>
       <c r="AZ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36">
         <v>0</v>
       </c>
       <c r="BC36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE36">
         <v>0</v>
@@ -7252,61 +7169,58 @@
       <c r="BG36">
         <v>0</v>
       </c>
-      <c r="BH36">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:60">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37">
         <v>61</v>
       </c>
       <c r="C37">
-        <v>0.918</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D37">
-        <v>0.0164</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="E37">
-        <v>0.1311</v>
+        <v>0.13109999999999999</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.2459</v>
+        <v>0.24590000000000001</v>
       </c>
       <c r="H37">
-        <v>0.9671999999999999</v>
+        <v>0.96719999999999995</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.4262</v>
+        <v>0.42620000000000002</v>
       </c>
       <c r="K37">
         <v>0.4098</v>
       </c>
       <c r="L37">
-        <v>0.0492</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="M37">
-        <v>0.2295</v>
+        <v>0.22950000000000001</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0.0492</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="P37">
         <v>0.1148</v>
       </c>
       <c r="Q37">
-        <v>0.0164</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -7315,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>0.0164</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -7327,10 +7241,10 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>0.0164</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="Y37">
-        <v>0.2951</v>
+        <v>0.29509999999999997</v>
       </c>
       <c r="Z37">
         <v>0.6885</v>
@@ -7339,7 +7253,7 @@
         <v>0.623</v>
       </c>
       <c r="AB37">
-        <v>0.5738</v>
+        <v>0.57379999999999998</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -7363,84 +7277,81 @@
         <v>0</v>
       </c>
       <c r="AJ37">
-        <v>0.8667</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="AK37">
-        <v>0.6667</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AL37">
-        <v>0.2667</v>
+        <v>0.26669999999999999</v>
       </c>
       <c r="AM37">
-        <v>0.0667</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AO37">
+        <v>0.375</v>
+      </c>
+      <c r="AP37">
+        <v>0.75</v>
+      </c>
+      <c r="AQ37">
         <v>0.125</v>
       </c>
-      <c r="AP37">
-        <v>0.375</v>
-      </c>
-      <c r="AQ37">
-        <v>0.75</v>
-      </c>
       <c r="AR37">
+        <v>1</v>
+      </c>
+      <c r="AS37">
+        <v>0.62709999999999999</v>
+      </c>
+      <c r="AT37">
+        <v>0.37290000000000001</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0.5</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="BC37">
+        <v>1</v>
+      </c>
+      <c r="BD37">
         <v>0.125</v>
       </c>
-      <c r="AS37">
-        <v>1</v>
-      </c>
-      <c r="AT37">
-        <v>0.6271</v>
-      </c>
-      <c r="AU37">
-        <v>0.3729</v>
-      </c>
-      <c r="AV37">
-        <v>0</v>
-      </c>
-      <c r="AW37">
-        <v>0</v>
-      </c>
-      <c r="AX37">
-        <v>0</v>
-      </c>
-      <c r="AY37">
-        <v>0.3036</v>
-      </c>
-      <c r="AZ37">
-        <v>0</v>
-      </c>
-      <c r="BA37">
-        <v>0.5</v>
-      </c>
-      <c r="BB37">
-        <v>0</v>
-      </c>
-      <c r="BC37">
-        <v>0.0357</v>
-      </c>
-      <c r="BD37">
-        <v>1</v>
-      </c>
       <c r="BE37">
-        <v>0.125</v>
+        <v>0.1071</v>
       </c>
       <c r="BF37">
-        <v>0.1071</v>
+        <v>0.16070000000000001</v>
       </c>
       <c r="BG37">
-        <v>0.1607</v>
-      </c>
-      <c r="BH37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:60">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -7572,10 +7483,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -7587,16 +7498,16 @@
         <v>0</v>
       </c>
       <c r="AX38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
         <v>0.5</v>
       </c>
-      <c r="AZ38">
-        <v>0</v>
-      </c>
       <c r="BA38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BB38">
         <v>0</v>
@@ -7616,267 +7527,261 @@
       <c r="BG38">
         <v>0</v>
       </c>
-      <c r="BH38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:60">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39">
         <v>454</v>
       </c>
       <c r="C39">
-        <v>0.3106</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="D39">
-        <v>0.0771</v>
+        <v>7.7100000000000002E-2</v>
       </c>
       <c r="E39">
-        <v>0.1344</v>
+        <v>0.13439999999999999</v>
       </c>
       <c r="F39">
         <v>0.1057</v>
       </c>
       <c r="G39">
-        <v>0.2775</v>
+        <v>0.27750000000000002</v>
       </c>
       <c r="H39">
-        <v>0.9295</v>
+        <v>0.92949999999999999</v>
       </c>
       <c r="I39">
-        <v>0.0132</v>
+        <v>1.32E-2</v>
       </c>
       <c r="J39">
-        <v>0.2247</v>
+        <v>0.22470000000000001</v>
       </c>
       <c r="K39">
-        <v>0.4317</v>
+        <v>0.43169999999999997</v>
       </c>
       <c r="L39">
-        <v>0.0286</v>
+        <v>2.86E-2</v>
       </c>
       <c r="M39">
-        <v>0.2577</v>
+        <v>0.25769999999999998</v>
       </c>
       <c r="N39">
-        <v>0.0022</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="O39">
         <v>0.1696</v>
       </c>
       <c r="P39">
-        <v>0.1894</v>
+        <v>0.18940000000000001</v>
       </c>
       <c r="Q39">
-        <v>0.0617</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="R39">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="S39">
-        <v>0.0132</v>
+        <v>1.32E-2</v>
       </c>
       <c r="T39">
-        <v>0.0154</v>
+        <v>1.54E-2</v>
       </c>
       <c r="U39">
-        <v>0.0044</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="V39">
         <v>0.2203</v>
       </c>
       <c r="W39">
-        <v>0.008800000000000001</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="X39">
-        <v>0.0044</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="Y39">
         <v>0.4229</v>
       </c>
       <c r="Z39">
-        <v>0.2511</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="AA39">
-        <v>0.3744</v>
+        <v>0.37440000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.6696</v>
+        <v>0.66959999999999997</v>
       </c>
       <c r="AC39">
         <v>0.125</v>
       </c>
       <c r="AD39">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AE39">
-        <v>0.6458</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="AF39">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="AG39">
-        <v>0.8333</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="AH39">
         <v>0.125</v>
       </c>
       <c r="AI39">
-        <v>0.5833</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="AJ39">
-        <v>0.9524</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="AK39">
-        <v>0.4762</v>
+        <v>0.47620000000000001</v>
       </c>
       <c r="AL39">
-        <v>0.3968</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="AM39">
         <v>0.1111</v>
       </c>
       <c r="AN39">
-        <v>1</v>
+        <v>0.26229999999999998</v>
       </c>
       <c r="AO39">
-        <v>0.2623</v>
+        <v>0.49180000000000001</v>
       </c>
       <c r="AP39">
-        <v>0.4918</v>
+        <v>0.65569999999999995</v>
       </c>
       <c r="AQ39">
-        <v>0.6556999999999999</v>
+        <v>0.13109999999999999</v>
       </c>
       <c r="AR39">
-        <v>0.1311</v>
+        <v>0.85250000000000004</v>
       </c>
       <c r="AS39">
-        <v>0.8525</v>
+        <v>0.40970000000000001</v>
       </c>
       <c r="AT39">
-        <v>0.4097</v>
+        <v>0.59030000000000005</v>
       </c>
       <c r="AU39">
-        <v>0.5903</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AV39">
-        <v>0.8571</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="AW39">
-        <v>0.0164</v>
+        <v>2.86E-2</v>
       </c>
       <c r="AX39">
-        <v>0.0286</v>
+        <v>0.37590000000000001</v>
       </c>
       <c r="AY39">
-        <v>0.3759</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="AZ39">
-        <v>0.0857</v>
+        <v>0.51060000000000005</v>
       </c>
       <c r="BA39">
-        <v>0.5106000000000001</v>
+        <v>0.31430000000000002</v>
       </c>
       <c r="BB39">
-        <v>0.3143</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="BC39">
-        <v>0.0426</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="BD39">
-        <v>0.5714</v>
+        <v>0.19670000000000001</v>
       </c>
       <c r="BE39">
-        <v>0.1967</v>
+        <v>9.2200000000000004E-2</v>
       </c>
       <c r="BF39">
-        <v>0.0922</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="BG39">
-        <v>0.0709</v>
-      </c>
-      <c r="BH39">
-        <v>0.0159</v>
+        <v>1.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:60">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40">
         <v>21</v>
       </c>
       <c r="C40">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="F40">
-        <v>0.2381</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="G40">
-        <v>0.4286</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="H40">
-        <v>0.8571</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.09520000000000001</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="K40">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="L40">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="M40">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="P40">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="Q40">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="R40">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="W40">
-        <v>0.09520000000000001</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="X40">
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>0.2381</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -7885,7 +7790,7 @@
         <v>0.1905</v>
       </c>
       <c r="AB40">
-        <v>0.8571</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AC40">
         <v>0.2</v>
@@ -7909,19 +7814,19 @@
         <v>0.4</v>
       </c>
       <c r="AJ40">
-        <v>0.8889</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="AK40">
-        <v>0.5556</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="AL40">
-        <v>0.4444</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="AM40">
         <v>0</v>
       </c>
       <c r="AN40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO40">
         <v>0</v>
@@ -7930,19 +7835,19 @@
         <v>0</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS40">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT40">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AU40">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AV40">
         <v>0</v>
@@ -7957,10 +7862,10 @@
         <v>0</v>
       </c>
       <c r="AZ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40">
         <v>0</v>
@@ -7980,13 +7885,10 @@
       <c r="BG40">
         <v>0</v>
       </c>
-      <c r="BH40">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:60">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -8103,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AN41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP41">
         <v>0</v>
@@ -8115,16 +8017,16 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV41">
         <v>0</v>
@@ -8151,10 +8053,10 @@
         <v>0</v>
       </c>
       <c r="BD41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF41">
         <v>0</v>
@@ -8162,34 +8064,31 @@
       <c r="BG41">
         <v>0</v>
       </c>
-      <c r="BH41">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:60">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42">
         <v>61</v>
       </c>
       <c r="C42">
-        <v>0.9344</v>
+        <v>0.93440000000000001</v>
       </c>
       <c r="D42">
-        <v>0.0328</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="E42">
-        <v>0.3607</v>
+        <v>0.36070000000000002</v>
       </c>
       <c r="F42">
-        <v>0.082</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G42">
-        <v>0.4262</v>
+        <v>0.42620000000000002</v>
       </c>
       <c r="H42">
-        <v>0.9344</v>
+        <v>0.93440000000000001</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -8198,40 +8097,40 @@
         <v>0.4098</v>
       </c>
       <c r="K42">
-        <v>0.4918</v>
+        <v>0.49180000000000001</v>
       </c>
       <c r="L42">
-        <v>0.06560000000000001</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="M42">
-        <v>0.3934</v>
+        <v>0.39340000000000003</v>
       </c>
       <c r="N42">
-        <v>0.0164</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="O42">
-        <v>0.1475</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="P42">
         <v>0.3115</v>
       </c>
       <c r="Q42">
-        <v>0.06560000000000001</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="R42">
-        <v>0.0328</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="S42">
-        <v>0.0328</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="T42">
-        <v>0.082</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="U42">
-        <v>0.0492</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="V42">
-        <v>0.0492</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="W42">
         <v>0</v>
@@ -8240,16 +8139,16 @@
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>0.3934</v>
+        <v>0.39340000000000003</v>
       </c>
       <c r="Z42">
         <v>0.623</v>
       </c>
       <c r="AA42">
-        <v>0.5082</v>
+        <v>0.50819999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.7049</v>
+        <v>0.70489999999999997</v>
       </c>
       <c r="AC42">
         <v>0.2</v>
@@ -8276,102 +8175,99 @@
         <v>1</v>
       </c>
       <c r="AK42">
-        <v>0.6153999999999999</v>
+        <v>0.61539999999999995</v>
       </c>
       <c r="AL42">
-        <v>0.2692</v>
+        <v>0.26919999999999999</v>
       </c>
       <c r="AM42">
         <v>0.1154</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="AO42">
-        <v>0.1364</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="AP42">
-        <v>0.1818</v>
+        <v>0.40910000000000002</v>
       </c>
       <c r="AQ42">
-        <v>0.4091</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="AR42">
-        <v>0.1364</v>
+        <v>0.77270000000000005</v>
       </c>
       <c r="AS42">
-        <v>0.7727000000000001</v>
+        <v>0.58930000000000005</v>
       </c>
       <c r="AT42">
-        <v>0.5893</v>
+        <v>0.41070000000000001</v>
       </c>
       <c r="AU42">
-        <v>0.4107</v>
+        <v>1</v>
       </c>
       <c r="AV42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW42">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AX42">
+        <v>0.193</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
         <v>0.5</v>
       </c>
-      <c r="AY42">
-        <v>0.193</v>
-      </c>
-      <c r="AZ42">
-        <v>0</v>
-      </c>
-      <c r="BA42">
-        <v>0.7544</v>
-      </c>
-      <c r="BB42">
-        <v>0</v>
-      </c>
-      <c r="BC42">
-        <v>0</v>
-      </c>
       <c r="BD42">
-        <v>0.5</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="BE42">
-        <v>0.4545</v>
+        <v>0.24560000000000001</v>
       </c>
       <c r="BF42">
-        <v>0.2456</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="BG42">
-        <v>0.0526</v>
-      </c>
-      <c r="BH42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:60">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43">
         <v>58</v>
       </c>
       <c r="C43">
-        <v>0.9655</v>
+        <v>0.96550000000000002</v>
       </c>
       <c r="D43">
-        <v>0.0517</v>
+        <v>5.1700000000000003E-2</v>
       </c>
       <c r="E43">
-        <v>0.4655</v>
+        <v>0.46550000000000002</v>
       </c>
       <c r="F43">
-        <v>0.1034</v>
+        <v>0.10340000000000001</v>
       </c>
       <c r="G43">
         <v>0.4138</v>
       </c>
       <c r="H43">
-        <v>0.9655</v>
+        <v>0.96550000000000002</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -8380,13 +8276,13 @@
         <v>0.2586</v>
       </c>
       <c r="K43">
-        <v>0.6897</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="L43">
-        <v>0.0517</v>
+        <v>5.1700000000000003E-2</v>
       </c>
       <c r="M43">
-        <v>0.431</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -8398,37 +8294,37 @@
         <v>0.2069</v>
       </c>
       <c r="Q43">
-        <v>0.1034</v>
+        <v>0.10340000000000001</v>
       </c>
       <c r="R43">
-        <v>0.0172</v>
+        <v>1.72E-2</v>
       </c>
       <c r="S43">
-        <v>0.0172</v>
+        <v>1.72E-2</v>
       </c>
       <c r="T43">
-        <v>0.0172</v>
+        <v>1.72E-2</v>
       </c>
       <c r="U43">
-        <v>0.0345</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="V43">
-        <v>0.1379</v>
+        <v>0.13789999999999999</v>
       </c>
       <c r="W43">
-        <v>0.0172</v>
+        <v>1.72E-2</v>
       </c>
       <c r="X43">
-        <v>0.0345</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="Y43">
-        <v>0.5862000000000001</v>
+        <v>0.58620000000000005</v>
       </c>
       <c r="Z43">
         <v>0.8448</v>
       </c>
       <c r="AA43">
-        <v>0.6207</v>
+        <v>0.62070000000000003</v>
       </c>
       <c r="AB43">
         <v>0.8276</v>
@@ -8449,90 +8345,87 @@
         <v>1</v>
       </c>
       <c r="AH43">
-        <v>0.6667</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AI43">
-        <v>0.8333</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="AJ43">
-        <v>0.9167</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="AK43">
-        <v>0.4167</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="AL43">
-        <v>0.4583</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="AM43">
         <v>0.125</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>0.14810000000000001</v>
       </c>
       <c r="AO43">
-        <v>0.1481</v>
+        <v>0.29630000000000001</v>
       </c>
       <c r="AP43">
-        <v>0.2963</v>
+        <v>0.14810000000000001</v>
       </c>
       <c r="AQ43">
-        <v>0.1481</v>
+        <v>7.4099999999999999E-2</v>
       </c>
       <c r="AR43">
-        <v>0.0741</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="AS43">
-        <v>0.8519</v>
+        <v>0.46150000000000002</v>
       </c>
       <c r="AT43">
-        <v>0.4615</v>
+        <v>0.53849999999999998</v>
       </c>
       <c r="AU43">
-        <v>0.5385</v>
+        <v>1</v>
       </c>
       <c r="AV43">
-        <v>1</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AW43">
-        <v>0.037</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AX43">
-        <v>0.3333</v>
+        <v>0.17860000000000001</v>
       </c>
       <c r="AY43">
-        <v>0.1786</v>
+        <v>0</v>
       </c>
       <c r="AZ43">
-        <v>0</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="BA43">
-        <v>0.7857</v>
+        <v>0</v>
       </c>
       <c r="BB43">
         <v>0</v>
       </c>
       <c r="BC43">
-        <v>0</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="BD43">
-        <v>0.6667</v>
+        <v>0.74070000000000003</v>
       </c>
       <c r="BE43">
-        <v>0.7407</v>
+        <v>0.16070000000000001</v>
       </c>
       <c r="BF43">
-        <v>0.1607</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="BG43">
-        <v>0.0357</v>
-      </c>
-      <c r="BH43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:60">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44">
         <v>14</v>
@@ -8544,10 +8437,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.07140000000000001</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="F44">
-        <v>0.07140000000000001</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="G44">
         <v>0.5</v>
@@ -8559,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.7143</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="K44">
-        <v>0.5714</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="N44">
         <v>0.1429</v>
@@ -8577,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>0.4286</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="Q44">
         <v>0.1429</v>
@@ -8604,16 +8497,16 @@
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>0.7857</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="Z44">
-        <v>0.6429</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="AA44">
-        <v>0.4286</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="AB44">
-        <v>0.9286</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -8640,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="AK44">
-        <v>0.8571</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AL44">
         <v>0.1429</v>
@@ -8655,22 +8548,22 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44">
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>0</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="AT44">
-        <v>0.9286</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="AU44">
-        <v>0.07140000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV44">
         <v>0</v>
@@ -8679,22 +8572,22 @@
         <v>0</v>
       </c>
       <c r="AX44">
-        <v>0</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="AY44">
-        <v>0.07140000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ44">
-        <v>0</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="BA44">
-        <v>0.8571</v>
+        <v>0</v>
       </c>
       <c r="BB44">
-        <v>0</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="BC44">
-        <v>0.07140000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD44">
         <v>0</v>
@@ -8708,13 +8601,10 @@
       <c r="BG44">
         <v>0</v>
       </c>
-      <c r="BH44">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:60">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45">
         <v>71</v>
@@ -8723,61 +8613,61 @@
         <v>0.9859</v>
       </c>
       <c r="D45">
-        <v>0.0141</v>
+        <v>1.41E-2</v>
       </c>
       <c r="E45">
-        <v>0.4789</v>
+        <v>0.47889999999999999</v>
       </c>
       <c r="F45">
-        <v>0.0704</v>
+        <v>7.0400000000000004E-2</v>
       </c>
       <c r="G45">
-        <v>0.5915</v>
+        <v>0.59150000000000003</v>
       </c>
       <c r="H45">
-        <v>0.8732</v>
+        <v>0.87319999999999998</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.3944</v>
+        <v>0.39439999999999997</v>
       </c>
       <c r="K45">
-        <v>0.7042</v>
+        <v>0.70420000000000005</v>
       </c>
       <c r="L45">
-        <v>0.0563</v>
+        <v>5.6300000000000003E-2</v>
       </c>
       <c r="M45">
-        <v>0.3803</v>
+        <v>0.38030000000000003</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>0.169</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="P45">
-        <v>0.2254</v>
+        <v>0.22539999999999999</v>
       </c>
       <c r="Q45">
-        <v>0.1408</v>
+        <v>0.14080000000000001</v>
       </c>
       <c r="R45">
-        <v>0.0141</v>
+        <v>1.41E-2</v>
       </c>
       <c r="S45">
-        <v>0.0704</v>
+        <v>7.0400000000000004E-2</v>
       </c>
       <c r="T45">
-        <v>0.0282</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="U45">
-        <v>0.0141</v>
+        <v>1.41E-2</v>
       </c>
       <c r="V45">
-        <v>0.0141</v>
+        <v>1.41E-2</v>
       </c>
       <c r="W45">
         <v>0</v>
@@ -8786,16 +8676,16 @@
         <v>0</v>
       </c>
       <c r="Y45">
-        <v>0.0563</v>
+        <v>5.6300000000000003E-2</v>
       </c>
       <c r="Z45">
-        <v>0.6901</v>
+        <v>0.69010000000000005</v>
       </c>
       <c r="AA45">
-        <v>0.5775</v>
+        <v>0.57750000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.1127</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="AC45">
         <v>0.2</v>
@@ -8819,141 +8709,138 @@
         <v>1</v>
       </c>
       <c r="AJ45">
-        <v>0.9286</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="AK45">
         <v>0.3095</v>
       </c>
       <c r="AL45">
-        <v>0.5714</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="AM45">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="AO45">
-        <v>0.1765</v>
+        <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.5</v>
+        <v>0.29409999999999997</v>
       </c>
       <c r="AQ45">
-        <v>0.2941</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="AR45">
-        <v>0.0882</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="AS45">
-        <v>0.8235</v>
+        <v>0.38329999999999997</v>
       </c>
       <c r="AT45">
-        <v>0.3833</v>
+        <v>0.61670000000000003</v>
       </c>
       <c r="AU45">
-        <v>0.6167</v>
+        <v>1</v>
       </c>
       <c r="AV45">
-        <v>1</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="AW45">
-        <v>0.0294</v>
+        <v>0</v>
       </c>
       <c r="AX45">
-        <v>0</v>
+        <v>0.27139999999999997</v>
       </c>
       <c r="AY45">
-        <v>0.2714</v>
+        <v>0</v>
       </c>
       <c r="AZ45">
-        <v>0</v>
+        <v>0.65710000000000002</v>
       </c>
       <c r="BA45">
-        <v>0.6571</v>
+        <v>0</v>
       </c>
       <c r="BB45">
-        <v>0</v>
+        <v>1.43E-2</v>
       </c>
       <c r="BC45">
-        <v>0.0143</v>
+        <v>1</v>
       </c>
       <c r="BD45">
-        <v>1</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="BE45">
-        <v>0.5881999999999999</v>
+        <v>0.1857</v>
       </c>
       <c r="BF45">
-        <v>0.1857</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="BG45">
-        <v>0.0571</v>
-      </c>
-      <c r="BH45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46">
         <v>42</v>
       </c>
       <c r="C46">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F46">
-        <v>0.5476</v>
+        <v>0.54759999999999998</v>
       </c>
       <c r="G46">
-        <v>0.5238</v>
+        <v>0.52380000000000004</v>
       </c>
       <c r="H46">
-        <v>0.881</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="I46">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="J46">
-        <v>0.07140000000000001</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="K46">
-        <v>0.4524</v>
+        <v>0.45240000000000002</v>
       </c>
       <c r="L46">
-        <v>0.07140000000000001</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="M46">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>0.2381</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="P46">
         <v>0.3095</v>
       </c>
       <c r="Q46">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="R46">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="S46">
-        <v>0.07140000000000001</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="T46">
-        <v>0.2381</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -8962,37 +8849,37 @@
         <v>0.1905</v>
       </c>
       <c r="W46">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="X46">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="Y46">
-        <v>0.0476</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="Z46">
-        <v>0.09520000000000001</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="AA46">
-        <v>0.4048</v>
+        <v>0.40479999999999999</v>
       </c>
       <c r="AB46">
-        <v>0.2143</v>
+        <v>0.21429999999999999</v>
       </c>
       <c r="AC46">
-        <v>0.0435</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="AD46">
-        <v>0.08699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="AE46">
-        <v>0.8260999999999999</v>
+        <v>0.82609999999999995</v>
       </c>
       <c r="AF46">
-        <v>0.0435</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="AG46">
-        <v>0.7391</v>
+        <v>0.73909999999999998</v>
       </c>
       <c r="AH46">
         <v>0</v>
@@ -9001,40 +8888,40 @@
         <v>0.4783</v>
       </c>
       <c r="AJ46">
-        <v>0.9545</v>
+        <v>0.95450000000000002</v>
       </c>
       <c r="AK46">
-        <v>0.3636</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="AL46">
-        <v>0.5455</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="AM46">
-        <v>0.09089999999999999</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="AO46">
-        <v>0.4286</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="AP46">
-        <v>0.5714</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="AQ46">
-        <v>0.5714</v>
+        <v>0.1429</v>
       </c>
       <c r="AR46">
-        <v>0.1429</v>
+        <v>1</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>0.3125</v>
       </c>
       <c r="AT46">
-        <v>0.3125</v>
+        <v>0.6875</v>
       </c>
       <c r="AU46">
-        <v>0.6875</v>
+        <v>0</v>
       </c>
       <c r="AV46">
         <v>0</v>
@@ -9043,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="AX46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ46">
         <v>0</v>
@@ -9061,10 +8948,10 @@
         <v>0</v>
       </c>
       <c r="BD46">
-        <v>0</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="BE46">
-        <v>0.2857</v>
+        <v>0</v>
       </c>
       <c r="BF46">
         <v>0</v>
@@ -9072,13 +8959,10 @@
       <c r="BG46">
         <v>0</v>
       </c>
-      <c r="BH46">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:60">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47">
         <v>54</v>
@@ -9087,166 +8971,166 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E47">
-        <v>0.1296</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="F47">
-        <v>0.2593</v>
+        <v>0.25929999999999997</v>
       </c>
       <c r="G47">
-        <v>0.7593</v>
+        <v>0.75929999999999997</v>
       </c>
       <c r="H47">
-        <v>0.9258999999999999</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="I47">
-        <v>0.0556</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="J47">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="K47">
-        <v>0.5926</v>
+        <v>0.59260000000000002</v>
       </c>
       <c r="L47">
-        <v>0.2037</v>
+        <v>0.20369999999999999</v>
       </c>
       <c r="M47">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="N47">
-        <v>0.0185</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="O47">
-        <v>0.1481</v>
+        <v>0.14810000000000001</v>
       </c>
       <c r="P47">
         <v>0.5</v>
       </c>
       <c r="Q47">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="R47">
-        <v>0.3519</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="S47">
         <v>0.1111</v>
       </c>
       <c r="T47">
-        <v>0.1481</v>
+        <v>0.14810000000000001</v>
       </c>
       <c r="U47">
         <v>0</v>
       </c>
       <c r="V47">
-        <v>0.1481</v>
+        <v>0.14810000000000001</v>
       </c>
       <c r="W47">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="X47">
-        <v>0.0185</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="Y47">
-        <v>0.0741</v>
+        <v>7.4099999999999999E-2</v>
       </c>
       <c r="Z47">
-        <v>0.0556</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="AA47">
         <v>0.4259</v>
       </c>
       <c r="AB47">
-        <v>0.2963</v>
+        <v>0.29630000000000001</v>
       </c>
       <c r="AC47">
         <v>0.1429</v>
       </c>
       <c r="AD47">
-        <v>0.07140000000000001</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="AE47">
-        <v>0.7143</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="AF47">
-        <v>0.07140000000000001</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="AG47">
-        <v>0.6429</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="AH47">
         <v>0</v>
       </c>
       <c r="AI47">
-        <v>0.5714</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="AJ47">
-        <v>0.9756</v>
+        <v>0.97560000000000002</v>
       </c>
       <c r="AK47">
-        <v>0.4146</v>
+        <v>0.41460000000000002</v>
       </c>
       <c r="AL47">
-        <v>0.4878</v>
+        <v>0.48780000000000001</v>
       </c>
       <c r="AM47">
-        <v>0.09760000000000001</v>
+        <v>9.7600000000000006E-2</v>
       </c>
       <c r="AN47">
-        <v>1</v>
+        <v>0.1429</v>
       </c>
       <c r="AO47">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="AP47">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="AQ47">
         <v>0.1429</v>
       </c>
-      <c r="AP47">
-        <v>0.4286</v>
-      </c>
-      <c r="AQ47">
-        <v>0.5714</v>
-      </c>
       <c r="AR47">
-        <v>0.1429</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AS47">
-        <v>0.8571</v>
+        <v>0.2273</v>
       </c>
       <c r="AT47">
-        <v>0.2273</v>
+        <v>0.77270000000000005</v>
       </c>
       <c r="AU47">
-        <v>0.7727000000000001</v>
+        <v>1</v>
       </c>
       <c r="AV47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
         <v>0.5</v>
       </c>
-      <c r="AY47">
-        <v>0</v>
-      </c>
-      <c r="AZ47">
-        <v>0</v>
-      </c>
-      <c r="BA47">
-        <v>0</v>
-      </c>
-      <c r="BB47">
-        <v>0</v>
-      </c>
-      <c r="BC47">
-        <v>0</v>
-      </c>
       <c r="BD47">
-        <v>0.5</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="BE47">
-        <v>0.2857</v>
+        <v>0</v>
       </c>
       <c r="BF47">
         <v>0</v>
@@ -9254,34 +9138,31 @@
       <c r="BG47">
         <v>0</v>
       </c>
-      <c r="BH47">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:60">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48">
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.5208</v>
+        <v>0.52080000000000004</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F48">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G48">
-        <v>0.3542</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="H48">
-        <v>0.7083</v>
+        <v>0.70830000000000004</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -9290,40 +9171,40 @@
         <v>0.625</v>
       </c>
       <c r="K48">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.4583</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="P48">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>0.0208</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="S48">
         <v>0</v>
       </c>
       <c r="T48">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="U48">
         <v>0</v>
       </c>
       <c r="V48">
-        <v>0.0208</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -9332,25 +9213,25 @@
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>0.0417</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="Z48">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="AA48">
         <v>0.1042</v>
       </c>
       <c r="AB48">
-        <v>0.2917</v>
+        <v>0.29170000000000001</v>
       </c>
       <c r="AC48">
         <v>0</v>
       </c>
       <c r="AD48">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AE48">
-        <v>0.6667</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -9359,16 +9240,16 @@
         <v>1</v>
       </c>
       <c r="AH48">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AI48">
-        <v>0.6667</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AJ48">
         <v>1</v>
       </c>
       <c r="AK48">
-        <v>0.5881999999999999</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="AL48">
         <v>0.4118</v>
@@ -9377,28 +9258,28 @@
         <v>0</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="AO48">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="AP48">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="AQ48">
         <v>0.25</v>
       </c>
       <c r="AR48">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AS48">
-        <v>1</v>
+        <v>0.6452</v>
       </c>
       <c r="AT48">
-        <v>0.6452</v>
+        <v>0.3548</v>
       </c>
       <c r="AU48">
-        <v>0.3548</v>
+        <v>0</v>
       </c>
       <c r="AV48">
         <v>0</v>
@@ -9407,16 +9288,16 @@
         <v>0</v>
       </c>
       <c r="AX48">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AY48">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ48">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BA48">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="BB48">
         <v>0</v>
@@ -9425,24 +9306,21 @@
         <v>0</v>
       </c>
       <c r="BD48">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BE48">
-        <v>0.5</v>
+        <v>0.04</v>
       </c>
       <c r="BF48">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="BG48">
         <v>0</v>
       </c>
-      <c r="BH48">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:60">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -9457,61 +9335,61 @@
         <v>0.25</v>
       </c>
       <c r="F49">
-        <v>0.8333</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="G49">
-        <v>0.5833</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="H49">
-        <v>0.9167</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="K49">
         <v>0.5</v>
       </c>
       <c r="L49">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="M49">
         <v>0.25</v>
       </c>
       <c r="N49">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="O49">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="P49">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="Q49">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="R49">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="S49">
         <v>0.25</v>
       </c>
       <c r="T49">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="U49">
         <v>0</v>
       </c>
       <c r="V49">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="W49">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="X49">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -9520,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -9547,40 +9425,40 @@
         <v>0.4</v>
       </c>
       <c r="AJ49">
-        <v>0.7143</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="AK49">
-        <v>0.7143</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="AL49">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="AM49">
         <v>0</v>
       </c>
       <c r="AN49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AP49">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AQ49">
-        <v>0.3333</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="AR49">
-        <v>0.6667</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AS49">
-        <v>0.3333</v>
+        <v>0.6</v>
       </c>
       <c r="AT49">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AU49">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AV49">
         <v>0</v>
@@ -9618,82 +9496,79 @@
       <c r="BG49">
         <v>0</v>
       </c>
-      <c r="BH49">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:60">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50">
         <v>383</v>
       </c>
       <c r="C50">
-        <v>0.5875</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="D50">
-        <v>0.0209</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="E50">
-        <v>0.2924</v>
+        <v>0.29239999999999999</v>
       </c>
       <c r="F50">
-        <v>0.1906</v>
+        <v>0.19059999999999999</v>
       </c>
       <c r="G50">
-        <v>0.5144</v>
+        <v>0.51439999999999997</v>
       </c>
       <c r="H50">
-        <v>0.8903</v>
+        <v>0.89029999999999998</v>
       </c>
       <c r="I50">
-        <v>0.0131</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="J50">
-        <v>0.3055</v>
+        <v>0.30549999999999999</v>
       </c>
       <c r="K50">
-        <v>0.5508999999999999</v>
+        <v>0.55089999999999995</v>
       </c>
       <c r="L50">
-        <v>0.0757</v>
+        <v>7.5700000000000003E-2</v>
       </c>
       <c r="M50">
-        <v>0.3551</v>
+        <v>0.35510000000000003</v>
       </c>
       <c r="N50">
-        <v>0.0131</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="O50">
-        <v>0.1723</v>
+        <v>0.17230000000000001</v>
       </c>
       <c r="P50">
-        <v>0.2977</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="Q50">
-        <v>0.08359999999999999</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="R50">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="S50">
-        <v>0.0522</v>
+        <v>5.2200000000000003E-2</v>
       </c>
       <c r="T50">
-        <v>0.0809</v>
+        <v>8.09E-2</v>
       </c>
       <c r="U50">
-        <v>0.0157</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="V50">
         <v>0.1018</v>
       </c>
       <c r="W50">
-        <v>0.0235</v>
+        <v>2.35E-2</v>
       </c>
       <c r="X50">
-        <v>0.0157</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="Y50">
         <v>0.2298</v>
@@ -9705,106 +9580,104 @@
         <v>0.436</v>
       </c>
       <c r="AB50">
-        <v>0.4465</v>
+        <v>0.44650000000000001</v>
       </c>
       <c r="AC50">
-        <v>0.1233</v>
+        <v>0.12330000000000001</v>
       </c>
       <c r="AD50">
-        <v>0.0822</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE50">
-        <v>0.7397</v>
+        <v>0.73970000000000002</v>
       </c>
       <c r="AF50">
-        <v>0.0548</v>
+        <v>5.4800000000000001E-2</v>
       </c>
       <c r="AG50">
-        <v>0.7945</v>
+        <v>0.79449999999999998</v>
       </c>
       <c r="AH50">
-        <v>0.1233</v>
+        <v>0.12330000000000001</v>
       </c>
       <c r="AI50">
-        <v>0.5479000000000001</v>
+        <v>0.54790000000000005</v>
       </c>
       <c r="AJ50">
-        <v>0.9492</v>
+        <v>0.94920000000000004</v>
       </c>
       <c r="AK50">
-        <v>0.4569</v>
+        <v>0.45689999999999997</v>
       </c>
       <c r="AL50">
-        <v>0.4569</v>
+        <v>0.45689999999999997</v>
       </c>
       <c r="AM50">
-        <v>0.0863</v>
+        <v>8.6300000000000002E-2</v>
       </c>
       <c r="AN50">
-        <v>1</v>
+        <v>0.1696</v>
       </c>
       <c r="AO50">
-        <v>0.1696</v>
+        <v>0.375</v>
       </c>
       <c r="AP50">
+        <v>0.3125</v>
+      </c>
+      <c r="AQ50">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="AR50">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="AS50">
+        <v>0.4511</v>
+      </c>
+      <c r="AT50">
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="AU50">
+        <v>1</v>
+      </c>
+      <c r="AV50">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="AW50">
         <v>0.375</v>
       </c>
-      <c r="AQ50">
-        <v>0.3125</v>
-      </c>
-      <c r="AR50">
-        <v>0.1339</v>
-      </c>
-      <c r="AS50">
-        <v>0.8214</v>
-      </c>
-      <c r="AT50">
-        <v>0.4511</v>
-      </c>
-      <c r="AU50">
-        <v>0.5489000000000001</v>
-      </c>
-      <c r="AV50">
-        <v>1</v>
-      </c>
-      <c r="AW50">
-        <v>0.0179</v>
-      </c>
       <c r="AX50">
-        <v>0.375</v>
+        <v>0.25330000000000003</v>
       </c>
       <c r="AY50">
-        <v>0.2533</v>
+        <v>0</v>
       </c>
       <c r="AZ50">
-        <v>0</v>
+        <v>0.69779999999999998</v>
       </c>
       <c r="BA50">
-        <v>0.6978</v>
+        <v>0</v>
       </c>
       <c r="BB50">
-        <v>0</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="BC50">
-        <v>0.0089</v>
+        <v>0.625</v>
       </c>
       <c r="BD50">
-        <v>0.625</v>
+        <v>0.53569999999999995</v>
       </c>
       <c r="BE50">
-        <v>0.5357</v>
+        <v>0.16439999999999999</v>
       </c>
       <c r="BF50">
-        <v>0.1644</v>
+        <v>0.04</v>
       </c>
       <c r="BG50">
-        <v>0.04</v>
-      </c>
-      <c r="BH50">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/step_attribute_num_json_procent.xlsx
+++ b/step_attribute_num_json_procent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morning\Desktop\hiwi\heart\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11250F44-2C3F-4C0A-A70E-C8E3E5F76067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857EB858-577D-4174-9A00-CA83D8EB3D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="25600" windowHeight="15250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12570" yWindow="4020" windowWidth="38700" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,13 +720,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS8" sqref="AS8"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>1.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>107</v>
       </c>
